--- a/students/Ben_freeman/lesson07/Report/data graph.xlsx
+++ b/students/Ben_freeman/lesson07/Report/data graph.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Desktop\Pythonclass\SP_Python220B_2019\students\Ben_freeman\lesson07\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F2238A0-AC77-42C7-8B94-271CB053483E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29801844-3E29-4E39-8C57-13793085C037}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1785" windowWidth="20760" windowHeight="13185" xr2:uid="{D7CDC97D-6FB2-420B-B6B0-904577BB5113}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D7CDC97D-6FB2-420B-B6B0-904577BB5113}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>n</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>lin time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lin/para </t>
   </si>
 </sst>
 </file>
@@ -188,10 +191,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -206,16 +209,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.4268312454223602</c:v>
                 </c:pt>
@@ -230,6 +236,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5.3446998596191397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.201545238494798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -254,10 +263,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -272,16 +281,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3.6901473999023403E-2</c:v>
                 </c:pt>
@@ -296,6 +308,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.9218578338623</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.658403635025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +522,373 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time over Parallel time vs n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0768395452305169E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1795331906788867E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8375084927483132E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.321525475651249E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35958199418877201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69706831554008242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC81-4912-983B-470FA49A317A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="586122136"/>
+        <c:axId val="586125088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="586122136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586125088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="586125088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="586122136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1068,6 +1449,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1101,6 +1998,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57911436-1C9D-40F1-BD87-6F49CFB1C359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1406,15 +2339,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04480C6D-7616-4D87-96D1-A08C6A5A91CB}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1424,8 +2357,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1435,8 +2371,12 @@
       <c r="C2">
         <v>3.6901473999023403E-2</v>
       </c>
+      <c r="D2">
+        <f>C2/B2</f>
+        <v>1.0768395452305169E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1446,8 +2386,12 @@
       <c r="C3">
         <v>4.0891170501708901E-2</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">C3/B3</f>
+        <v>1.1795331906788867E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>400</v>
       </c>
@@ -1457,8 +2401,12 @@
       <c r="C4">
         <v>6.38296604156494E-2</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>1.8375084927483132E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
@@ -1468,8 +2416,12 @@
       <c r="C5">
         <v>0.22041082382202101</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>6.321525475651249E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40000</v>
       </c>
@@ -1478,6 +2430,25 @@
       </c>
       <c r="C6">
         <v>1.9218578338623</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.35958199418877201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>400000</v>
+      </c>
+      <c r="B7">
+        <v>28.201545238494798</v>
+      </c>
+      <c r="C7">
+        <v>19.658403635025</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.69706831554008242</v>
       </c>
     </row>
   </sheetData>
